--- a/lotto/로또선택번호.xlsx
+++ b/lotto/로또선택번호.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hyun_Folder\etc\ETC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hyun_Folder\ETC\lotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76E1596-76D0-46F2-8945-4296EE2ECE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3418C90A-5E3A-4202-97C7-754BCA3C56AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3F66154-893D-4296-ADCA-04E5D9EE91D1}"/>
   </bookViews>
@@ -778,7 +778,7 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1332,12 +1332,24 @@
       <c r="S9" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="T9" s="6"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="8"/>
+      <c r="T9" s="6">
+        <v>6</v>
+      </c>
+      <c r="U9" s="7">
+        <v>14</v>
+      </c>
+      <c r="V9" s="7">
+        <v>19</v>
+      </c>
+      <c r="W9" s="7">
+        <v>26</v>
+      </c>
+      <c r="X9" s="7">
+        <v>34</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>45</v>
+      </c>
       <c r="Z9" s="24" t="s">
         <v>5</v>
       </c>
@@ -1386,12 +1398,24 @@
       <c r="Q10" s="25"/>
       <c r="R10" s="10"/>
       <c r="S10" s="20"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="4"/>
+      <c r="T10" s="2">
+        <v>2</v>
+      </c>
+      <c r="U10" s="3">
+        <v>11</v>
+      </c>
+      <c r="V10" s="3">
+        <v>22</v>
+      </c>
+      <c r="W10" s="3">
+        <v>26</v>
+      </c>
+      <c r="X10" s="3">
+        <v>31</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>45</v>
+      </c>
       <c r="Z10" s="25"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
@@ -1444,12 +1468,24 @@
       <c r="S11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="T11" s="6"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="8"/>
+      <c r="T11" s="6">
+        <v>3</v>
+      </c>
+      <c r="U11" s="7">
+        <v>4</v>
+      </c>
+      <c r="V11" s="7">
+        <v>15</v>
+      </c>
+      <c r="W11" s="7">
+        <v>23</v>
+      </c>
+      <c r="X11" s="7">
+        <v>30</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>45</v>
+      </c>
       <c r="Z11" s="25"/>
     </row>
     <row r="12" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1496,12 +1532,24 @@
       <c r="Q12" s="25"/>
       <c r="R12" s="10"/>
       <c r="S12" s="19"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="4"/>
+      <c r="T12" s="2">
+        <v>13</v>
+      </c>
+      <c r="U12" s="3">
+        <v>9</v>
+      </c>
+      <c r="V12" s="3">
+        <v>10</v>
+      </c>
+      <c r="W12" s="3">
+        <v>37</v>
+      </c>
+      <c r="X12" s="3">
+        <v>45</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>39</v>
+      </c>
       <c r="Z12" s="25"/>
     </row>
     <row r="13" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1554,12 +1602,24 @@
       <c r="S13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T13" s="6"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="8"/>
+      <c r="T13" s="6">
+        <v>5</v>
+      </c>
+      <c r="U13" s="7">
+        <v>12</v>
+      </c>
+      <c r="V13" s="7">
+        <v>15</v>
+      </c>
+      <c r="W13" s="7">
+        <v>23</v>
+      </c>
+      <c r="X13" s="7">
+        <v>32</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>43</v>
+      </c>
       <c r="Z13" s="26"/>
     </row>
     <row r="14" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1591,13 +1651,27 @@
       <c r="J14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="17"/>
+      <c r="K14" s="14">
+        <v>2</v>
+      </c>
+      <c r="L14" s="15">
+        <v>5</v>
+      </c>
+      <c r="M14" s="15">
+        <v>12</v>
+      </c>
+      <c r="N14" s="15">
+        <v>14</v>
+      </c>
+      <c r="O14" s="15">
+        <v>24</v>
+      </c>
+      <c r="P14" s="16">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>33</v>
+      </c>
       <c r="R14" s="11"/>
       <c r="S14" s="13" t="s">
         <v>4</v>

--- a/lotto/로또선택번호.xlsx
+++ b/lotto/로또선택번호.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hyun_Folder\ETC\lotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3418C90A-5E3A-4202-97C7-754BCA3C56AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BA8F73-8B43-49A8-9568-FBEC5281E25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3F66154-893D-4296-ADCA-04E5D9EE91D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3F66154-893D-4296-ADCA-04E5D9EE91D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -379,7 +379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -432,6 +432,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -778,7 +781,7 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -791,41 +794,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="9"/>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="24"/>
       <c r="R1" s="9"/>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="24"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6">
@@ -846,11 +849,11 @@
       <c r="G2" s="8">
         <v>42</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="25" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="10"/>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="6">
@@ -871,11 +874,11 @@
       <c r="P2" s="8">
         <v>42</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="25" t="s">
         <v>5</v>
       </c>
       <c r="R2" s="10"/>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="T2" s="6">
@@ -896,12 +899,12 @@
       <c r="Y2" s="8">
         <v>40</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="Z2" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="2">
         <v>7</v>
       </c>
@@ -920,9 +923,9 @@
       <c r="G3" s="4">
         <v>40</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="20"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="2">
         <v>7</v>
       </c>
@@ -941,9 +944,9 @@
       <c r="P3" s="4">
         <v>43</v>
       </c>
-      <c r="Q3" s="25"/>
+      <c r="Q3" s="26"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="20"/>
+      <c r="S3" s="21"/>
       <c r="T3" s="2">
         <v>2</v>
       </c>
@@ -962,10 +965,10 @@
       <c r="Y3" s="4">
         <v>38</v>
       </c>
-      <c r="Z3" s="25"/>
+      <c r="Z3" s="26"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6">
@@ -986,9 +989,9 @@
       <c r="G4" s="8">
         <v>37</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="6">
@@ -1009,9 +1012,9 @@
       <c r="P4" s="8">
         <v>44</v>
       </c>
-      <c r="Q4" s="25"/>
+      <c r="Q4" s="26"/>
       <c r="R4" s="10"/>
-      <c r="S4" s="18" t="s">
+      <c r="S4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="T4" s="6">
@@ -1032,10 +1035,10 @@
       <c r="Y4" s="8">
         <v>38</v>
       </c>
-      <c r="Z4" s="25"/>
+      <c r="Z4" s="26"/>
     </row>
     <row r="5" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1054,9 +1057,9 @@
       <c r="G5" s="4">
         <v>38</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="19"/>
+      <c r="J5" s="20"/>
       <c r="K5" s="2">
         <v>17</v>
       </c>
@@ -1075,9 +1078,9 @@
       <c r="P5" s="4">
         <v>45</v>
       </c>
-      <c r="Q5" s="25"/>
+      <c r="Q5" s="26"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="19"/>
+      <c r="S5" s="20"/>
       <c r="T5" s="2">
         <v>2</v>
       </c>
@@ -1096,7 +1099,7 @@
       <c r="Y5" s="4">
         <v>40</v>
       </c>
-      <c r="Z5" s="25"/>
+      <c r="Z5" s="26"/>
     </row>
     <row r="6" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -1120,7 +1123,7 @@
       <c r="G6" s="8">
         <v>39</v>
       </c>
-      <c r="H6" s="26"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="10"/>
       <c r="J6" s="5" t="s">
         <v>3</v>
@@ -1143,7 +1146,7 @@
       <c r="P6" s="8">
         <v>43</v>
       </c>
-      <c r="Q6" s="26"/>
+      <c r="Q6" s="27"/>
       <c r="R6" s="10"/>
       <c r="S6" s="5" t="s">
         <v>3</v>
@@ -1166,7 +1169,7 @@
       <c r="Y6" s="8">
         <v>43</v>
       </c>
-      <c r="Z6" s="26"/>
+      <c r="Z6" s="27"/>
     </row>
     <row r="7" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
@@ -1245,41 +1248,41 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="24"/>
       <c r="R8" s="9"/>
-      <c r="S8" s="21" t="s">
+      <c r="S8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="24"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="6">
@@ -1300,11 +1303,11 @@
       <c r="G9" s="8">
         <v>42</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="25" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="19" t="s">
         <v>1</v>
       </c>
       <c r="K9" s="6">
@@ -1325,11 +1328,11 @@
       <c r="P9" s="8">
         <v>39</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="Q9" s="25" t="s">
         <v>5</v>
       </c>
       <c r="R9" s="10"/>
-      <c r="S9" s="18" t="s">
+      <c r="S9" s="19" t="s">
         <v>1</v>
       </c>
       <c r="T9" s="6">
@@ -1350,12 +1353,12 @@
       <c r="Y9" s="8">
         <v>45</v>
       </c>
-      <c r="Z9" s="24" t="s">
+      <c r="Z9" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="2">
         <v>4</v>
       </c>
@@ -1374,9 +1377,9 @@
       <c r="G10" s="4">
         <v>45</v>
       </c>
-      <c r="H10" s="25"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="20"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="2">
         <v>2</v>
       </c>
@@ -1395,9 +1398,9 @@
       <c r="P10" s="4">
         <v>44</v>
       </c>
-      <c r="Q10" s="25"/>
+      <c r="Q10" s="26"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="20"/>
+      <c r="S10" s="21"/>
       <c r="T10" s="2">
         <v>2</v>
       </c>
@@ -1416,10 +1419,10 @@
       <c r="Y10" s="4">
         <v>45</v>
       </c>
-      <c r="Z10" s="25"/>
+      <c r="Z10" s="26"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="6">
@@ -1440,9 +1443,9 @@
       <c r="G11" s="8">
         <v>43</v>
       </c>
-      <c r="H11" s="25"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="19" t="s">
         <v>2</v>
       </c>
       <c r="K11" s="6">
@@ -1463,9 +1466,9 @@
       <c r="P11" s="8">
         <v>41</v>
       </c>
-      <c r="Q11" s="25"/>
+      <c r="Q11" s="26"/>
       <c r="R11" s="10"/>
-      <c r="S11" s="18" t="s">
+      <c r="S11" s="19" t="s">
         <v>2</v>
       </c>
       <c r="T11" s="6">
@@ -1486,10 +1489,10 @@
       <c r="Y11" s="8">
         <v>45</v>
       </c>
-      <c r="Z11" s="25"/>
+      <c r="Z11" s="26"/>
     </row>
     <row r="12" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -1508,9 +1511,9 @@
       <c r="G12" s="4">
         <v>40</v>
       </c>
-      <c r="H12" s="25"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="19"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="2">
         <v>12</v>
       </c>
@@ -1529,28 +1532,28 @@
       <c r="P12" s="4">
         <v>43</v>
       </c>
-      <c r="Q12" s="25"/>
+      <c r="Q12" s="26"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="19"/>
+      <c r="S12" s="20"/>
       <c r="T12" s="2">
         <v>13</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="18">
         <v>9</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="18">
         <v>10</v>
       </c>
       <c r="W12" s="3">
         <v>37</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X12" s="18">
         <v>45</v>
       </c>
       <c r="Y12" s="4">
         <v>39</v>
       </c>
-      <c r="Z12" s="25"/>
+      <c r="Z12" s="26"/>
     </row>
     <row r="13" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -1574,7 +1577,7 @@
       <c r="G13" s="8">
         <v>43</v>
       </c>
-      <c r="H13" s="26"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="10"/>
       <c r="J13" s="5" t="s">
         <v>3</v>
@@ -1597,7 +1600,7 @@
       <c r="P13" s="8">
         <v>43</v>
       </c>
-      <c r="Q13" s="26"/>
+      <c r="Q13" s="27"/>
       <c r="R13" s="10"/>
       <c r="S13" s="5" t="s">
         <v>3</v>
@@ -1620,7 +1623,7 @@
       <c r="Y13" s="8">
         <v>43</v>
       </c>
-      <c r="Z13" s="26"/>
+      <c r="Z13" s="27"/>
     </row>
     <row r="14" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
@@ -1676,63 +1679,89 @@
       <c r="S14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="14"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="17"/>
+      <c r="T14" s="14">
+        <v>3</v>
+      </c>
+      <c r="U14" s="15">
+        <v>9</v>
+      </c>
+      <c r="V14" s="15">
+        <v>10</v>
+      </c>
+      <c r="W14" s="15">
+        <v>29</v>
+      </c>
+      <c r="X14" s="15">
+        <v>40</v>
+      </c>
+      <c r="Y14" s="16">
+        <v>45</v>
+      </c>
+      <c r="Z14" s="17">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="24"/>
       <c r="R15" s="9"/>
-      <c r="S15" s="21" t="s">
+      <c r="S15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="24"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="24" t="s">
+      <c r="B16" s="6">
+        <v>7</v>
+      </c>
+      <c r="C16" s="7">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7">
+        <v>26</v>
+      </c>
+      <c r="E16" s="7">
+        <v>31</v>
+      </c>
+      <c r="F16" s="7">
+        <v>30</v>
+      </c>
+      <c r="G16" s="8">
+        <v>44</v>
+      </c>
+      <c r="H16" s="25" t="s">
         <v>5</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="19" t="s">
         <v>1</v>
       </c>
       <c r="K16" s="6"/>
@@ -1741,11 +1770,11 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="24" t="s">
+      <c r="Q16" s="25" t="s">
         <v>5</v>
       </c>
       <c r="R16" s="10"/>
-      <c r="S16" s="18" t="s">
+      <c r="S16" s="19" t="s">
         <v>1</v>
       </c>
       <c r="T16" s="6"/>
@@ -1754,51 +1783,75 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="8"/>
-      <c r="Z16" s="24" t="s">
+      <c r="Z16" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="25"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3">
+        <v>23</v>
+      </c>
+      <c r="E17" s="3">
+        <v>29</v>
+      </c>
+      <c r="F17" s="3">
+        <v>33</v>
+      </c>
+      <c r="G17" s="4">
+        <v>44</v>
+      </c>
+      <c r="H17" s="26"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="20"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="2"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="25"/>
+      <c r="Q17" s="26"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="20"/>
+      <c r="S17" s="21"/>
       <c r="T17" s="2"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="25"/>
+      <c r="Z17" s="26"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="25"/>
+      <c r="B18" s="6">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7">
+        <v>15</v>
+      </c>
+      <c r="D18" s="7">
+        <v>16</v>
+      </c>
+      <c r="E18" s="7">
+        <v>43</v>
+      </c>
+      <c r="F18" s="7">
+        <v>26</v>
+      </c>
+      <c r="G18" s="8">
+        <v>39</v>
+      </c>
+      <c r="H18" s="26"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="19" t="s">
         <v>2</v>
       </c>
       <c r="K18" s="6"/>
@@ -1807,9 +1860,9 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="25"/>
+      <c r="Q18" s="26"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="18" t="s">
+      <c r="S18" s="19" t="s">
         <v>2</v>
       </c>
       <c r="T18" s="6"/>
@@ -1818,47 +1871,71 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="8"/>
-      <c r="Z18" s="25"/>
+      <c r="Z18" s="26"/>
     </row>
     <row r="19" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="25"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="2">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3">
+        <v>11</v>
+      </c>
+      <c r="E19" s="3">
+        <v>43</v>
+      </c>
+      <c r="F19" s="3">
+        <v>36</v>
+      </c>
+      <c r="G19" s="4">
+        <v>45</v>
+      </c>
+      <c r="H19" s="26"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="19"/>
+      <c r="J19" s="20"/>
       <c r="K19" s="2"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="25"/>
+      <c r="Q19" s="26"/>
       <c r="R19" s="10"/>
-      <c r="S19" s="19"/>
+      <c r="S19" s="20"/>
       <c r="T19" s="2"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="4"/>
-      <c r="Z19" s="25"/>
+      <c r="Z19" s="26"/>
     </row>
     <row r="20" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="26"/>
+      <c r="B20" s="6">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7">
+        <v>11</v>
+      </c>
+      <c r="D20" s="7">
+        <v>25</v>
+      </c>
+      <c r="E20" s="7">
+        <v>27</v>
+      </c>
+      <c r="F20" s="7">
+        <v>29</v>
+      </c>
+      <c r="G20" s="8">
+        <v>42</v>
+      </c>
+      <c r="H20" s="27"/>
       <c r="I20" s="10"/>
       <c r="J20" s="5" t="s">
         <v>3</v>
@@ -1869,7 +1946,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="26"/>
+      <c r="Q20" s="27"/>
       <c r="R20" s="10"/>
       <c r="S20" s="5" t="s">
         <v>3</v>
@@ -1880,7 +1957,7 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="8"/>
-      <c r="Z20" s="26"/>
+      <c r="Z20" s="27"/>
     </row>
     <row r="21" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
@@ -1917,41 +1994,41 @@
       <c r="Z21" s="17"/>
     </row>
     <row r="22" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="24"/>
       <c r="R22" s="9"/>
-      <c r="S22" s="21" t="s">
+      <c r="S22" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="24"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="6"/>
@@ -1960,11 +2037,11 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="25" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="10"/>
-      <c r="J23" s="18" t="s">
+      <c r="J23" s="19" t="s">
         <v>1</v>
       </c>
       <c r="K23" s="6"/>
@@ -1973,11 +2050,11 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="24" t="s">
+      <c r="Q23" s="25" t="s">
         <v>5</v>
       </c>
       <c r="R23" s="10"/>
-      <c r="S23" s="18" t="s">
+      <c r="S23" s="19" t="s">
         <v>1</v>
       </c>
       <c r="T23" s="6"/>
@@ -1986,40 +2063,40 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="8"/>
-      <c r="Z23" s="24" t="s">
+      <c r="Z23" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="20"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="25"/>
+      <c r="H24" s="26"/>
       <c r="I24" s="10"/>
-      <c r="J24" s="20"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="25"/>
+      <c r="Q24" s="26"/>
       <c r="R24" s="10"/>
-      <c r="S24" s="20"/>
+      <c r="S24" s="21"/>
       <c r="T24" s="2"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="25"/>
+      <c r="Z24" s="26"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="6"/>
@@ -2028,9 +2105,9 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="25"/>
+      <c r="H25" s="26"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="18" t="s">
+      <c r="J25" s="19" t="s">
         <v>2</v>
       </c>
       <c r="K25" s="6"/>
@@ -2039,9 +2116,9 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="25"/>
+      <c r="Q25" s="26"/>
       <c r="R25" s="10"/>
-      <c r="S25" s="18" t="s">
+      <c r="S25" s="19" t="s">
         <v>2</v>
       </c>
       <c r="T25" s="6"/>
@@ -2050,35 +2127,35 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="8"/>
-      <c r="Z25" s="25"/>
+      <c r="Z25" s="26"/>
     </row>
     <row r="26" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="19"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="25"/>
+      <c r="H26" s="26"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="19"/>
+      <c r="J26" s="20"/>
       <c r="K26" s="2"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="25"/>
+      <c r="Q26" s="26"/>
       <c r="R26" s="10"/>
-      <c r="S26" s="19"/>
+      <c r="S26" s="20"/>
       <c r="T26" s="2"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="25"/>
+      <c r="Z26" s="26"/>
     </row>
     <row r="27" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
@@ -2090,7 +2167,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="26"/>
+      <c r="H27" s="27"/>
       <c r="I27" s="10"/>
       <c r="J27" s="5" t="s">
         <v>3</v>
@@ -2101,7 +2178,7 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="8"/>
-      <c r="Q27" s="26"/>
+      <c r="Q27" s="27"/>
       <c r="R27" s="10"/>
       <c r="S27" s="5" t="s">
         <v>3</v>
@@ -2112,7 +2189,7 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="8"/>
-      <c r="Z27" s="26"/>
+      <c r="Z27" s="27"/>
     </row>
     <row r="28" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">

--- a/lotto/로또선택번호.xlsx
+++ b/lotto/로또선택번호.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hyun_Folder\ETC\lotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BA8F73-8B43-49A8-9568-FBEC5281E25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02175C9A-09D5-4D44-9469-8B31CF8257A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3F66154-893D-4296-ADCA-04E5D9EE91D1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3F66154-893D-4296-ADCA-04E5D9EE91D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,31 +437,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -781,7 +781,7 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -828,7 +828,7 @@
       <c r="Z1" s="24"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6">
@@ -849,11 +849,11 @@
       <c r="G2" s="8">
         <v>42</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="10"/>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="6">
@@ -874,11 +874,11 @@
       <c r="P2" s="8">
         <v>42</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="R2" s="10"/>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="T2" s="6">
@@ -899,12 +899,12 @@
       <c r="Y2" s="8">
         <v>40</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="Z2" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="2">
         <v>7</v>
       </c>
@@ -923,9 +923,9 @@
       <c r="G3" s="4">
         <v>40</v>
       </c>
-      <c r="H3" s="26"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="21"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="2">
         <v>7</v>
       </c>
@@ -944,9 +944,9 @@
       <c r="P3" s="4">
         <v>43</v>
       </c>
-      <c r="Q3" s="26"/>
+      <c r="Q3" s="20"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="21"/>
+      <c r="S3" s="26"/>
       <c r="T3" s="2">
         <v>2</v>
       </c>
@@ -965,10 +965,10 @@
       <c r="Y3" s="4">
         <v>38</v>
       </c>
-      <c r="Z3" s="26"/>
+      <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6">
@@ -989,9 +989,9 @@
       <c r="G4" s="8">
         <v>37</v>
       </c>
-      <c r="H4" s="26"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="25" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="6">
@@ -1012,9 +1012,9 @@
       <c r="P4" s="8">
         <v>44</v>
       </c>
-      <c r="Q4" s="26"/>
+      <c r="Q4" s="20"/>
       <c r="R4" s="10"/>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="25" t="s">
         <v>2</v>
       </c>
       <c r="T4" s="6">
@@ -1035,10 +1035,10 @@
       <c r="Y4" s="8">
         <v>38</v>
       </c>
-      <c r="Z4" s="26"/>
+      <c r="Z4" s="20"/>
     </row>
     <row r="5" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1057,9 +1057,9 @@
       <c r="G5" s="4">
         <v>38</v>
       </c>
-      <c r="H5" s="26"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="20"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="2">
         <v>17</v>
       </c>
@@ -1078,9 +1078,9 @@
       <c r="P5" s="4">
         <v>45</v>
       </c>
-      <c r="Q5" s="26"/>
+      <c r="Q5" s="20"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="20"/>
+      <c r="S5" s="27"/>
       <c r="T5" s="2">
         <v>2</v>
       </c>
@@ -1099,7 +1099,7 @@
       <c r="Y5" s="4">
         <v>40</v>
       </c>
-      <c r="Z5" s="26"/>
+      <c r="Z5" s="20"/>
     </row>
     <row r="6" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -1123,7 +1123,7 @@
       <c r="G6" s="8">
         <v>39</v>
       </c>
-      <c r="H6" s="27"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="10"/>
       <c r="J6" s="5" t="s">
         <v>3</v>
@@ -1146,7 +1146,7 @@
       <c r="P6" s="8">
         <v>43</v>
       </c>
-      <c r="Q6" s="27"/>
+      <c r="Q6" s="21"/>
       <c r="R6" s="10"/>
       <c r="S6" s="5" t="s">
         <v>3</v>
@@ -1169,7 +1169,7 @@
       <c r="Y6" s="8">
         <v>43</v>
       </c>
-      <c r="Z6" s="27"/>
+      <c r="Z6" s="21"/>
     </row>
     <row r="7" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
@@ -1282,7 +1282,7 @@
       <c r="Z8" s="24"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="6">
@@ -1303,11 +1303,11 @@
       <c r="G9" s="8">
         <v>42</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="19" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="25" t="s">
         <v>1</v>
       </c>
       <c r="K9" s="6">
@@ -1328,11 +1328,11 @@
       <c r="P9" s="8">
         <v>39</v>
       </c>
-      <c r="Q9" s="25" t="s">
+      <c r="Q9" s="19" t="s">
         <v>5</v>
       </c>
       <c r="R9" s="10"/>
-      <c r="S9" s="19" t="s">
+      <c r="S9" s="25" t="s">
         <v>1</v>
       </c>
       <c r="T9" s="6">
@@ -1353,12 +1353,12 @@
       <c r="Y9" s="8">
         <v>45</v>
       </c>
-      <c r="Z9" s="25" t="s">
+      <c r="Z9" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="2">
         <v>4</v>
       </c>
@@ -1377,9 +1377,9 @@
       <c r="G10" s="4">
         <v>45</v>
       </c>
-      <c r="H10" s="26"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="21"/>
+      <c r="J10" s="26"/>
       <c r="K10" s="2">
         <v>2</v>
       </c>
@@ -1398,9 +1398,9 @@
       <c r="P10" s="4">
         <v>44</v>
       </c>
-      <c r="Q10" s="26"/>
+      <c r="Q10" s="20"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="21"/>
+      <c r="S10" s="26"/>
       <c r="T10" s="2">
         <v>2</v>
       </c>
@@ -1419,10 +1419,10 @@
       <c r="Y10" s="4">
         <v>45</v>
       </c>
-      <c r="Z10" s="26"/>
+      <c r="Z10" s="20"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="6">
@@ -1443,9 +1443,9 @@
       <c r="G11" s="8">
         <v>43</v>
       </c>
-      <c r="H11" s="26"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="25" t="s">
         <v>2</v>
       </c>
       <c r="K11" s="6">
@@ -1466,9 +1466,9 @@
       <c r="P11" s="8">
         <v>41</v>
       </c>
-      <c r="Q11" s="26"/>
+      <c r="Q11" s="20"/>
       <c r="R11" s="10"/>
-      <c r="S11" s="19" t="s">
+      <c r="S11" s="25" t="s">
         <v>2</v>
       </c>
       <c r="T11" s="6">
@@ -1489,10 +1489,10 @@
       <c r="Y11" s="8">
         <v>45</v>
       </c>
-      <c r="Z11" s="26"/>
+      <c r="Z11" s="20"/>
     </row>
     <row r="12" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -1511,9 +1511,9 @@
       <c r="G12" s="4">
         <v>40</v>
       </c>
-      <c r="H12" s="26"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="20"/>
+      <c r="J12" s="27"/>
       <c r="K12" s="2">
         <v>12</v>
       </c>
@@ -1532,9 +1532,9 @@
       <c r="P12" s="4">
         <v>43</v>
       </c>
-      <c r="Q12" s="26"/>
+      <c r="Q12" s="20"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="20"/>
+      <c r="S12" s="27"/>
       <c r="T12" s="2">
         <v>13</v>
       </c>
@@ -1553,7 +1553,7 @@
       <c r="Y12" s="4">
         <v>39</v>
       </c>
-      <c r="Z12" s="26"/>
+      <c r="Z12" s="20"/>
     </row>
     <row r="13" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -1577,7 +1577,7 @@
       <c r="G13" s="8">
         <v>43</v>
       </c>
-      <c r="H13" s="27"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="10"/>
       <c r="J13" s="5" t="s">
         <v>3</v>
@@ -1600,7 +1600,7 @@
       <c r="P13" s="8">
         <v>43</v>
       </c>
-      <c r="Q13" s="27"/>
+      <c r="Q13" s="21"/>
       <c r="R13" s="10"/>
       <c r="S13" s="5" t="s">
         <v>3</v>
@@ -1623,7 +1623,7 @@
       <c r="Y13" s="8">
         <v>43</v>
       </c>
-      <c r="Z13" s="27"/>
+      <c r="Z13" s="21"/>
     </row>
     <row r="14" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
@@ -1736,7 +1736,7 @@
       <c r="Z15" s="24"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="6">
@@ -1757,24 +1757,36 @@
       <c r="G16" s="8">
         <v>44</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="19" t="s">
         <v>5</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="25" t="s">
+      <c r="K16" s="6">
+        <v>6</v>
+      </c>
+      <c r="L16" s="7">
+        <v>9</v>
+      </c>
+      <c r="M16" s="7">
+        <v>21</v>
+      </c>
+      <c r="N16" s="7">
+        <v>28</v>
+      </c>
+      <c r="O16" s="7">
+        <v>42</v>
+      </c>
+      <c r="P16" s="8">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="19" t="s">
         <v>5</v>
       </c>
       <c r="R16" s="10"/>
-      <c r="S16" s="19" t="s">
+      <c r="S16" s="25" t="s">
         <v>1</v>
       </c>
       <c r="T16" s="6"/>
@@ -1783,12 +1795,12 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="8"/>
-      <c r="Z16" s="25" t="s">
+      <c r="Z16" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="2">
         <v>4</v>
       </c>
@@ -1807,28 +1819,40 @@
       <c r="G17" s="4">
         <v>44</v>
       </c>
-      <c r="H17" s="26"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="2">
+        <v>8</v>
+      </c>
+      <c r="L17" s="3">
+        <v>11</v>
+      </c>
+      <c r="M17" s="3">
+        <v>18</v>
+      </c>
+      <c r="N17" s="3">
+        <v>28</v>
+      </c>
+      <c r="O17" s="3">
+        <v>38</v>
+      </c>
+      <c r="P17" s="4">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="20"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="21"/>
+      <c r="S17" s="26"/>
       <c r="T17" s="2"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="26"/>
+      <c r="Z17" s="20"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="6">
@@ -1849,20 +1873,32 @@
       <c r="G18" s="8">
         <v>39</v>
       </c>
-      <c r="H18" s="26"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="26"/>
+      <c r="K18" s="6">
+        <v>17</v>
+      </c>
+      <c r="L18" s="7">
+        <v>6</v>
+      </c>
+      <c r="M18" s="7">
+        <v>25</v>
+      </c>
+      <c r="N18" s="7">
+        <v>30</v>
+      </c>
+      <c r="O18" s="7">
+        <v>24</v>
+      </c>
+      <c r="P18" s="8">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="20"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="19" t="s">
+      <c r="S18" s="25" t="s">
         <v>2</v>
       </c>
       <c r="T18" s="6"/>
@@ -1871,10 +1907,10 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="8"/>
-      <c r="Z18" s="26"/>
+      <c r="Z18" s="20"/>
     </row>
     <row r="19" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="20"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="2">
         <v>8</v>
       </c>
@@ -1893,25 +1929,37 @@
       <c r="G19" s="4">
         <v>45</v>
       </c>
-      <c r="H19" s="26"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="26"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="2">
+        <v>18</v>
+      </c>
+      <c r="L19" s="3">
+        <v>9</v>
+      </c>
+      <c r="M19" s="3">
+        <v>27</v>
+      </c>
+      <c r="N19" s="3">
+        <v>21</v>
+      </c>
+      <c r="O19" s="3">
+        <v>28</v>
+      </c>
+      <c r="P19" s="4">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="20"/>
       <c r="R19" s="10"/>
-      <c r="S19" s="20"/>
+      <c r="S19" s="27"/>
       <c r="T19" s="2"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="4"/>
-      <c r="Z19" s="26"/>
+      <c r="Z19" s="20"/>
     </row>
     <row r="20" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
@@ -1935,18 +1983,30 @@
       <c r="G20" s="8">
         <v>42</v>
       </c>
-      <c r="H20" s="27"/>
+      <c r="H20" s="21"/>
       <c r="I20" s="10"/>
       <c r="J20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="27"/>
+      <c r="K20" s="6">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7">
+        <v>18</v>
+      </c>
+      <c r="M20" s="7">
+        <v>28</v>
+      </c>
+      <c r="N20" s="7">
+        <v>32</v>
+      </c>
+      <c r="O20" s="7">
+        <v>34</v>
+      </c>
+      <c r="P20" s="8">
+        <v>43</v>
+      </c>
+      <c r="Q20" s="21"/>
       <c r="R20" s="10"/>
       <c r="S20" s="5" t="s">
         <v>3</v>
@@ -1957,19 +2017,33 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="8"/>
-      <c r="Z20" s="27"/>
+      <c r="Z20" s="21"/>
     </row>
     <row r="21" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
+      <c r="B21" s="14">
+        <v>9</v>
+      </c>
+      <c r="C21" s="15">
+        <v>11</v>
+      </c>
+      <c r="D21" s="15">
+        <v>16</v>
+      </c>
+      <c r="E21" s="15">
+        <v>21</v>
+      </c>
+      <c r="F21" s="15">
+        <v>28</v>
+      </c>
+      <c r="G21" s="16">
+        <v>36</v>
+      </c>
+      <c r="H21" s="17">
+        <v>5</v>
+      </c>
       <c r="I21" s="11"/>
       <c r="J21" s="13" t="s">
         <v>4</v>
@@ -2028,7 +2102,7 @@
       <c r="Z22" s="24"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="6"/>
@@ -2037,11 +2111,11 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="19" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="10"/>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="25" t="s">
         <v>1</v>
       </c>
       <c r="K23" s="6"/>
@@ -2050,11 +2124,11 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="25" t="s">
+      <c r="Q23" s="19" t="s">
         <v>5</v>
       </c>
       <c r="R23" s="10"/>
-      <c r="S23" s="19" t="s">
+      <c r="S23" s="25" t="s">
         <v>1</v>
       </c>
       <c r="T23" s="6"/>
@@ -2063,40 +2137,40 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="8"/>
-      <c r="Z23" s="25" t="s">
+      <c r="Z23" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="21"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="26"/>
+      <c r="H24" s="20"/>
       <c r="I24" s="10"/>
-      <c r="J24" s="21"/>
+      <c r="J24" s="26"/>
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="26"/>
+      <c r="Q24" s="20"/>
       <c r="R24" s="10"/>
-      <c r="S24" s="21"/>
+      <c r="S24" s="26"/>
       <c r="T24" s="2"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="26"/>
+      <c r="Z24" s="20"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="6"/>
@@ -2105,9 +2179,9 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="26"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="25" t="s">
         <v>2</v>
       </c>
       <c r="K25" s="6"/>
@@ -2116,9 +2190,9 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="26"/>
+      <c r="Q25" s="20"/>
       <c r="R25" s="10"/>
-      <c r="S25" s="19" t="s">
+      <c r="S25" s="25" t="s">
         <v>2</v>
       </c>
       <c r="T25" s="6"/>
@@ -2127,35 +2201,35 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="8"/>
-      <c r="Z25" s="26"/>
+      <c r="Z25" s="20"/>
     </row>
     <row r="26" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="20"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="26"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="20"/>
+      <c r="J26" s="27"/>
       <c r="K26" s="2"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="26"/>
+      <c r="Q26" s="20"/>
       <c r="R26" s="10"/>
-      <c r="S26" s="20"/>
+      <c r="S26" s="27"/>
       <c r="T26" s="2"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="26"/>
+      <c r="Z26" s="20"/>
     </row>
     <row r="27" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
@@ -2167,7 +2241,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="27"/>
+      <c r="H27" s="21"/>
       <c r="I27" s="10"/>
       <c r="J27" s="5" t="s">
         <v>3</v>
@@ -2178,7 +2252,7 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="8"/>
-      <c r="Q27" s="27"/>
+      <c r="Q27" s="21"/>
       <c r="R27" s="10"/>
       <c r="S27" s="5" t="s">
         <v>3</v>
@@ -2189,7 +2263,7 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="8"/>
-      <c r="Z27" s="27"/>
+      <c r="Z27" s="21"/>
     </row>
     <row r="28" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
@@ -2227,6 +2301,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S8:Z8"/>
+    <mergeCell ref="S9:S10"/>
     <mergeCell ref="Q2:Q6"/>
     <mergeCell ref="Q9:Q13"/>
     <mergeCell ref="Q16:Q20"/>
@@ -2243,38 +2349,6 @@
     <mergeCell ref="S25:S26"/>
     <mergeCell ref="S11:S12"/>
     <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="S8:Z8"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="H2:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lotto/로또선택번호.xlsx
+++ b/lotto/로또선택번호.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hyun_Folder\ETC\lotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02175C9A-09D5-4D44-9469-8B31CF8257A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68ECDEE-C927-4EBE-8AFF-4E66A61AF0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3F66154-893D-4296-ADCA-04E5D9EE91D1}"/>
+    <workbookView xWindow="-25980" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{D3F66154-893D-4296-ADCA-04E5D9EE91D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,6 +437,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -444,24 +462,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF99196-0755-44AB-BF25-EE447335624D}">
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="G8" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -828,7 +828,7 @@
       <c r="Z1" s="24"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6">
@@ -849,11 +849,11 @@
       <c r="G2" s="8">
         <v>42</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="25" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="10"/>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="6">
@@ -874,11 +874,11 @@
       <c r="P2" s="8">
         <v>42</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="25" t="s">
         <v>5</v>
       </c>
       <c r="R2" s="10"/>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="T2" s="6">
@@ -899,12 +899,12 @@
       <c r="Y2" s="8">
         <v>40</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="Z2" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="2">
         <v>7</v>
       </c>
@@ -923,9 +923,9 @@
       <c r="G3" s="4">
         <v>40</v>
       </c>
-      <c r="H3" s="20"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="26"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="2">
         <v>7</v>
       </c>
@@ -944,9 +944,9 @@
       <c r="P3" s="4">
         <v>43</v>
       </c>
-      <c r="Q3" s="20"/>
+      <c r="Q3" s="26"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="26"/>
+      <c r="S3" s="21"/>
       <c r="T3" s="2">
         <v>2</v>
       </c>
@@ -965,10 +965,10 @@
       <c r="Y3" s="4">
         <v>38</v>
       </c>
-      <c r="Z3" s="20"/>
+      <c r="Z3" s="26"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6">
@@ -989,9 +989,9 @@
       <c r="G4" s="8">
         <v>37</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="6">
@@ -1012,9 +1012,9 @@
       <c r="P4" s="8">
         <v>44</v>
       </c>
-      <c r="Q4" s="20"/>
+      <c r="Q4" s="26"/>
       <c r="R4" s="10"/>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="T4" s="6">
@@ -1035,10 +1035,10 @@
       <c r="Y4" s="8">
         <v>38</v>
       </c>
-      <c r="Z4" s="20"/>
+      <c r="Z4" s="26"/>
     </row>
     <row r="5" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1057,9 +1057,9 @@
       <c r="G5" s="4">
         <v>38</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="27"/>
+      <c r="J5" s="20"/>
       <c r="K5" s="2">
         <v>17</v>
       </c>
@@ -1078,9 +1078,9 @@
       <c r="P5" s="4">
         <v>45</v>
       </c>
-      <c r="Q5" s="20"/>
+      <c r="Q5" s="26"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="27"/>
+      <c r="S5" s="20"/>
       <c r="T5" s="2">
         <v>2</v>
       </c>
@@ -1099,7 +1099,7 @@
       <c r="Y5" s="4">
         <v>40</v>
       </c>
-      <c r="Z5" s="20"/>
+      <c r="Z5" s="26"/>
     </row>
     <row r="6" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -1123,7 +1123,7 @@
       <c r="G6" s="8">
         <v>39</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="10"/>
       <c r="J6" s="5" t="s">
         <v>3</v>
@@ -1146,7 +1146,7 @@
       <c r="P6" s="8">
         <v>43</v>
       </c>
-      <c r="Q6" s="21"/>
+      <c r="Q6" s="27"/>
       <c r="R6" s="10"/>
       <c r="S6" s="5" t="s">
         <v>3</v>
@@ -1169,7 +1169,7 @@
       <c r="Y6" s="8">
         <v>43</v>
       </c>
-      <c r="Z6" s="21"/>
+      <c r="Z6" s="27"/>
     </row>
     <row r="7" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
@@ -1282,7 +1282,7 @@
       <c r="Z8" s="24"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="6">
@@ -1303,11 +1303,11 @@
       <c r="G9" s="8">
         <v>42</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="25" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="19" t="s">
         <v>1</v>
       </c>
       <c r="K9" s="6">
@@ -1328,11 +1328,11 @@
       <c r="P9" s="8">
         <v>39</v>
       </c>
-      <c r="Q9" s="19" t="s">
+      <c r="Q9" s="25" t="s">
         <v>5</v>
       </c>
       <c r="R9" s="10"/>
-      <c r="S9" s="25" t="s">
+      <c r="S9" s="19" t="s">
         <v>1</v>
       </c>
       <c r="T9" s="6">
@@ -1353,12 +1353,12 @@
       <c r="Y9" s="8">
         <v>45</v>
       </c>
-      <c r="Z9" s="19" t="s">
+      <c r="Z9" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="2">
         <v>4</v>
       </c>
@@ -1377,9 +1377,9 @@
       <c r="G10" s="4">
         <v>45</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="26"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="2">
         <v>2</v>
       </c>
@@ -1398,9 +1398,9 @@
       <c r="P10" s="4">
         <v>44</v>
       </c>
-      <c r="Q10" s="20"/>
+      <c r="Q10" s="26"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="26"/>
+      <c r="S10" s="21"/>
       <c r="T10" s="2">
         <v>2</v>
       </c>
@@ -1419,10 +1419,10 @@
       <c r="Y10" s="4">
         <v>45</v>
       </c>
-      <c r="Z10" s="20"/>
+      <c r="Z10" s="26"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="6">
@@ -1443,9 +1443,9 @@
       <c r="G11" s="8">
         <v>43</v>
       </c>
-      <c r="H11" s="20"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="19" t="s">
         <v>2</v>
       </c>
       <c r="K11" s="6">
@@ -1466,9 +1466,9 @@
       <c r="P11" s="8">
         <v>41</v>
       </c>
-      <c r="Q11" s="20"/>
+      <c r="Q11" s="26"/>
       <c r="R11" s="10"/>
-      <c r="S11" s="25" t="s">
+      <c r="S11" s="19" t="s">
         <v>2</v>
       </c>
       <c r="T11" s="6">
@@ -1489,10 +1489,10 @@
       <c r="Y11" s="8">
         <v>45</v>
       </c>
-      <c r="Z11" s="20"/>
+      <c r="Z11" s="26"/>
     </row>
     <row r="12" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="27"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -1511,9 +1511,9 @@
       <c r="G12" s="4">
         <v>40</v>
       </c>
-      <c r="H12" s="20"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="27"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="2">
         <v>12</v>
       </c>
@@ -1532,9 +1532,9 @@
       <c r="P12" s="4">
         <v>43</v>
       </c>
-      <c r="Q12" s="20"/>
+      <c r="Q12" s="26"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="27"/>
+      <c r="S12" s="20"/>
       <c r="T12" s="2">
         <v>13</v>
       </c>
@@ -1553,7 +1553,7 @@
       <c r="Y12" s="4">
         <v>39</v>
       </c>
-      <c r="Z12" s="20"/>
+      <c r="Z12" s="26"/>
     </row>
     <row r="13" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -1577,7 +1577,7 @@
       <c r="G13" s="8">
         <v>43</v>
       </c>
-      <c r="H13" s="21"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="10"/>
       <c r="J13" s="5" t="s">
         <v>3</v>
@@ -1600,7 +1600,7 @@
       <c r="P13" s="8">
         <v>43</v>
       </c>
-      <c r="Q13" s="21"/>
+      <c r="Q13" s="27"/>
       <c r="R13" s="10"/>
       <c r="S13" s="5" t="s">
         <v>3</v>
@@ -1623,7 +1623,7 @@
       <c r="Y13" s="8">
         <v>43</v>
       </c>
-      <c r="Z13" s="21"/>
+      <c r="Z13" s="27"/>
     </row>
     <row r="14" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
@@ -1736,7 +1736,7 @@
       <c r="Z15" s="24"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="6">
@@ -1757,11 +1757,11 @@
       <c r="G16" s="8">
         <v>44</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="25" t="s">
         <v>5</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="19" t="s">
         <v>1</v>
       </c>
       <c r="K16" s="6">
@@ -1782,25 +1782,37 @@
       <c r="P16" s="8">
         <v>45</v>
       </c>
-      <c r="Q16" s="19" t="s">
+      <c r="Q16" s="25" t="s">
         <v>5</v>
       </c>
       <c r="R16" s="10"/>
-      <c r="S16" s="25" t="s">
+      <c r="S16" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="T16" s="6"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="19" t="s">
+      <c r="T16" s="6">
+        <v>6</v>
+      </c>
+      <c r="U16" s="7">
+        <v>11</v>
+      </c>
+      <c r="V16" s="7">
+        <v>22</v>
+      </c>
+      <c r="W16" s="7">
+        <v>27</v>
+      </c>
+      <c r="X16" s="7">
+        <v>44</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>45</v>
+      </c>
+      <c r="Z16" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="26"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="2">
         <v>4</v>
       </c>
@@ -1819,9 +1831,9 @@
       <c r="G17" s="4">
         <v>44</v>
       </c>
-      <c r="H17" s="20"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="26"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="2">
         <v>8</v>
       </c>
@@ -1840,19 +1852,31 @@
       <c r="P17" s="4">
         <v>42</v>
       </c>
-      <c r="Q17" s="20"/>
+      <c r="Q17" s="26"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="20"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="2">
+        <v>2</v>
+      </c>
+      <c r="U17" s="3">
+        <v>8</v>
+      </c>
+      <c r="V17" s="3">
+        <v>18</v>
+      </c>
+      <c r="W17" s="3">
+        <v>31</v>
+      </c>
+      <c r="X17" s="3">
+        <v>25</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>45</v>
+      </c>
+      <c r="Z17" s="26"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="6">
@@ -1873,9 +1897,9 @@
       <c r="G18" s="8">
         <v>39</v>
       </c>
-      <c r="H18" s="20"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="19" t="s">
         <v>2</v>
       </c>
       <c r="K18" s="6">
@@ -1896,21 +1920,33 @@
       <c r="P18" s="8">
         <v>42</v>
       </c>
-      <c r="Q18" s="20"/>
+      <c r="Q18" s="26"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="25" t="s">
+      <c r="S18" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="T18" s="6"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="20"/>
+      <c r="T18" s="6">
+        <v>3</v>
+      </c>
+      <c r="U18" s="7">
+        <v>10</v>
+      </c>
+      <c r="V18" s="7">
+        <v>6</v>
+      </c>
+      <c r="W18" s="7">
+        <v>37</v>
+      </c>
+      <c r="X18" s="7">
+        <v>18</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>31</v>
+      </c>
+      <c r="Z18" s="26"/>
     </row>
     <row r="19" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="27"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="2">
         <v>8</v>
       </c>
@@ -1929,9 +1965,9 @@
       <c r="G19" s="4">
         <v>45</v>
       </c>
-      <c r="H19" s="20"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="27"/>
+      <c r="J19" s="20"/>
       <c r="K19" s="2">
         <v>18</v>
       </c>
@@ -1950,16 +1986,28 @@
       <c r="P19" s="4">
         <v>39</v>
       </c>
-      <c r="Q19" s="20"/>
+      <c r="Q19" s="26"/>
       <c r="R19" s="10"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="2">
+        <v>4</v>
+      </c>
+      <c r="U19" s="3">
+        <v>12</v>
+      </c>
+      <c r="V19" s="3">
+        <v>8</v>
+      </c>
+      <c r="W19" s="3">
+        <v>37</v>
+      </c>
+      <c r="X19" s="3">
+        <v>18</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>44</v>
+      </c>
+      <c r="Z19" s="26"/>
     </row>
     <row r="20" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
@@ -1983,7 +2031,7 @@
       <c r="G20" s="8">
         <v>42</v>
       </c>
-      <c r="H20" s="21"/>
+      <c r="H20" s="27"/>
       <c r="I20" s="10"/>
       <c r="J20" s="5" t="s">
         <v>3</v>
@@ -2006,18 +2054,30 @@
       <c r="P20" s="8">
         <v>43</v>
       </c>
-      <c r="Q20" s="21"/>
+      <c r="Q20" s="27"/>
       <c r="R20" s="10"/>
       <c r="S20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T20" s="6"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="21"/>
+      <c r="T20" s="6">
+        <v>8</v>
+      </c>
+      <c r="U20" s="7">
+        <v>11</v>
+      </c>
+      <c r="V20" s="7">
+        <v>16</v>
+      </c>
+      <c r="W20" s="7">
+        <v>29</v>
+      </c>
+      <c r="X20" s="7">
+        <v>31</v>
+      </c>
+      <c r="Y20" s="8">
+        <v>40</v>
+      </c>
+      <c r="Z20" s="27"/>
     </row>
     <row r="21" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
@@ -2048,13 +2108,27 @@
       <c r="J21" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="14"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="17"/>
+      <c r="K21" s="14">
+        <v>2</v>
+      </c>
+      <c r="L21" s="15">
+        <v>6</v>
+      </c>
+      <c r="M21" s="15">
+        <v>17</v>
+      </c>
+      <c r="N21" s="15">
+        <v>18</v>
+      </c>
+      <c r="O21" s="15">
+        <v>21</v>
+      </c>
+      <c r="P21" s="16">
+        <v>26</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>7</v>
+      </c>
       <c r="R21" s="11"/>
       <c r="S21" s="13" t="s">
         <v>4</v>
@@ -2102,7 +2176,7 @@
       <c r="Z22" s="24"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="6"/>
@@ -2111,11 +2185,11 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="25" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="10"/>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="19" t="s">
         <v>1</v>
       </c>
       <c r="K23" s="6"/>
@@ -2124,11 +2198,11 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="19" t="s">
+      <c r="Q23" s="25" t="s">
         <v>5</v>
       </c>
       <c r="R23" s="10"/>
-      <c r="S23" s="25" t="s">
+      <c r="S23" s="19" t="s">
         <v>1</v>
       </c>
       <c r="T23" s="6"/>
@@ -2137,40 +2211,40 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="8"/>
-      <c r="Z23" s="19" t="s">
+      <c r="Z23" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="26"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="20"/>
+      <c r="H24" s="26"/>
       <c r="I24" s="10"/>
-      <c r="J24" s="26"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="20"/>
+      <c r="Q24" s="26"/>
       <c r="R24" s="10"/>
-      <c r="S24" s="26"/>
+      <c r="S24" s="21"/>
       <c r="T24" s="2"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="20"/>
+      <c r="Z24" s="26"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="6"/>
@@ -2179,9 +2253,9 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="20"/>
+      <c r="H25" s="26"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="19" t="s">
         <v>2</v>
       </c>
       <c r="K25" s="6"/>
@@ -2190,9 +2264,9 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="20"/>
+      <c r="Q25" s="26"/>
       <c r="R25" s="10"/>
-      <c r="S25" s="25" t="s">
+      <c r="S25" s="19" t="s">
         <v>2</v>
       </c>
       <c r="T25" s="6"/>
@@ -2201,35 +2275,35 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="8"/>
-      <c r="Z25" s="20"/>
+      <c r="Z25" s="26"/>
     </row>
     <row r="26" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="27"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="20"/>
+      <c r="H26" s="26"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="27"/>
+      <c r="J26" s="20"/>
       <c r="K26" s="2"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="20"/>
+      <c r="Q26" s="26"/>
       <c r="R26" s="10"/>
-      <c r="S26" s="27"/>
+      <c r="S26" s="20"/>
       <c r="T26" s="2"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="20"/>
+      <c r="Z26" s="26"/>
     </row>
     <row r="27" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
@@ -2241,7 +2315,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="21"/>
+      <c r="H27" s="27"/>
       <c r="I27" s="10"/>
       <c r="J27" s="5" t="s">
         <v>3</v>
@@ -2252,7 +2326,7 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="8"/>
-      <c r="Q27" s="21"/>
+      <c r="Q27" s="27"/>
       <c r="R27" s="10"/>
       <c r="S27" s="5" t="s">
         <v>3</v>
@@ -2263,7 +2337,7 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="8"/>
-      <c r="Z27" s="21"/>
+      <c r="Z27" s="27"/>
     </row>
     <row r="28" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
@@ -2301,12 +2375,32 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="Q2:Q6"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q16:Q20"/>
+    <mergeCell ref="Q23:Q27"/>
+    <mergeCell ref="Z2:Z6"/>
+    <mergeCell ref="Z9:Z13"/>
+    <mergeCell ref="Z16:Z20"/>
+    <mergeCell ref="Z23:Z27"/>
+    <mergeCell ref="S15:Z15"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="S22:Z22"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S8:Z8"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J25:J26"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="J1:Q1"/>
     <mergeCell ref="J2:J3"/>
@@ -2323,32 +2417,12 @@
     <mergeCell ref="H9:H13"/>
     <mergeCell ref="H16:H20"/>
     <mergeCell ref="H23:H27"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="S8:Z8"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="Q2:Q6"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q16:Q20"/>
-    <mergeCell ref="Q23:Q27"/>
-    <mergeCell ref="Z2:Z6"/>
-    <mergeCell ref="Z9:Z13"/>
-    <mergeCell ref="Z16:Z20"/>
-    <mergeCell ref="Z23:Z27"/>
-    <mergeCell ref="S15:Z15"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="S22:Z22"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="H2:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lotto/로또선택번호.xlsx
+++ b/lotto/로또선택번호.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hyun_Folder\ETC\lotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68ECDEE-C927-4EBE-8AFF-4E66A61AF0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A62E71-9F9E-4999-8155-5C2DBB517546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25980" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{D3F66154-893D-4296-ADCA-04E5D9EE91D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3F66154-893D-4296-ADCA-04E5D9EE91D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -379,7 +379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,31 +437,37 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -780,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF99196-0755-44AB-BF25-EE447335624D}">
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G8" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -828,7 +834,7 @@
       <c r="Z1" s="24"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6">
@@ -849,11 +855,11 @@
       <c r="G2" s="8">
         <v>42</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="10"/>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="6">
@@ -874,11 +880,11 @@
       <c r="P2" s="8">
         <v>42</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="R2" s="10"/>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="T2" s="6">
@@ -899,12 +905,12 @@
       <c r="Y2" s="8">
         <v>40</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="Z2" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="2">
         <v>7</v>
       </c>
@@ -923,9 +929,9 @@
       <c r="G3" s="4">
         <v>40</v>
       </c>
-      <c r="H3" s="26"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="21"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="2">
         <v>7</v>
       </c>
@@ -944,9 +950,9 @@
       <c r="P3" s="4">
         <v>43</v>
       </c>
-      <c r="Q3" s="26"/>
+      <c r="Q3" s="20"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="21"/>
+      <c r="S3" s="26"/>
       <c r="T3" s="2">
         <v>2</v>
       </c>
@@ -965,10 +971,10 @@
       <c r="Y3" s="4">
         <v>38</v>
       </c>
-      <c r="Z3" s="26"/>
+      <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6">
@@ -989,9 +995,9 @@
       <c r="G4" s="8">
         <v>37</v>
       </c>
-      <c r="H4" s="26"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="25" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="6">
@@ -1012,9 +1018,9 @@
       <c r="P4" s="8">
         <v>44</v>
       </c>
-      <c r="Q4" s="26"/>
+      <c r="Q4" s="20"/>
       <c r="R4" s="10"/>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="25" t="s">
         <v>2</v>
       </c>
       <c r="T4" s="6">
@@ -1035,10 +1041,10 @@
       <c r="Y4" s="8">
         <v>38</v>
       </c>
-      <c r="Z4" s="26"/>
+      <c r="Z4" s="20"/>
     </row>
     <row r="5" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1057,9 +1063,9 @@
       <c r="G5" s="4">
         <v>38</v>
       </c>
-      <c r="H5" s="26"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="20"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="2">
         <v>17</v>
       </c>
@@ -1078,9 +1084,9 @@
       <c r="P5" s="4">
         <v>45</v>
       </c>
-      <c r="Q5" s="26"/>
+      <c r="Q5" s="20"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="20"/>
+      <c r="S5" s="27"/>
       <c r="T5" s="2">
         <v>2</v>
       </c>
@@ -1099,7 +1105,7 @@
       <c r="Y5" s="4">
         <v>40</v>
       </c>
-      <c r="Z5" s="26"/>
+      <c r="Z5" s="20"/>
     </row>
     <row r="6" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -1123,7 +1129,7 @@
       <c r="G6" s="8">
         <v>39</v>
       </c>
-      <c r="H6" s="27"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="10"/>
       <c r="J6" s="5" t="s">
         <v>3</v>
@@ -1146,7 +1152,7 @@
       <c r="P6" s="8">
         <v>43</v>
       </c>
-      <c r="Q6" s="27"/>
+      <c r="Q6" s="21"/>
       <c r="R6" s="10"/>
       <c r="S6" s="5" t="s">
         <v>3</v>
@@ -1169,7 +1175,7 @@
       <c r="Y6" s="8">
         <v>43</v>
       </c>
-      <c r="Z6" s="27"/>
+      <c r="Z6" s="21"/>
     </row>
     <row r="7" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
@@ -1282,7 +1288,7 @@
       <c r="Z8" s="24"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="6">
@@ -1303,11 +1309,11 @@
       <c r="G9" s="8">
         <v>42</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="19" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="25" t="s">
         <v>1</v>
       </c>
       <c r="K9" s="6">
@@ -1328,11 +1334,11 @@
       <c r="P9" s="8">
         <v>39</v>
       </c>
-      <c r="Q9" s="25" t="s">
+      <c r="Q9" s="19" t="s">
         <v>5</v>
       </c>
       <c r="R9" s="10"/>
-      <c r="S9" s="19" t="s">
+      <c r="S9" s="25" t="s">
         <v>1</v>
       </c>
       <c r="T9" s="6">
@@ -1353,12 +1359,12 @@
       <c r="Y9" s="8">
         <v>45</v>
       </c>
-      <c r="Z9" s="25" t="s">
+      <c r="Z9" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="2">
         <v>4</v>
       </c>
@@ -1377,9 +1383,9 @@
       <c r="G10" s="4">
         <v>45</v>
       </c>
-      <c r="H10" s="26"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="21"/>
+      <c r="J10" s="26"/>
       <c r="K10" s="2">
         <v>2</v>
       </c>
@@ -1398,9 +1404,9 @@
       <c r="P10" s="4">
         <v>44</v>
       </c>
-      <c r="Q10" s="26"/>
+      <c r="Q10" s="20"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="21"/>
+      <c r="S10" s="26"/>
       <c r="T10" s="2">
         <v>2</v>
       </c>
@@ -1419,10 +1425,10 @@
       <c r="Y10" s="4">
         <v>45</v>
       </c>
-      <c r="Z10" s="26"/>
+      <c r="Z10" s="20"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="6">
@@ -1443,9 +1449,9 @@
       <c r="G11" s="8">
         <v>43</v>
       </c>
-      <c r="H11" s="26"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="25" t="s">
         <v>2</v>
       </c>
       <c r="K11" s="6">
@@ -1466,9 +1472,9 @@
       <c r="P11" s="8">
         <v>41</v>
       </c>
-      <c r="Q11" s="26"/>
+      <c r="Q11" s="20"/>
       <c r="R11" s="10"/>
-      <c r="S11" s="19" t="s">
+      <c r="S11" s="25" t="s">
         <v>2</v>
       </c>
       <c r="T11" s="6">
@@ -1489,10 +1495,10 @@
       <c r="Y11" s="8">
         <v>45</v>
       </c>
-      <c r="Z11" s="26"/>
+      <c r="Z11" s="20"/>
     </row>
     <row r="12" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -1511,9 +1517,9 @@
       <c r="G12" s="4">
         <v>40</v>
       </c>
-      <c r="H12" s="26"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="20"/>
+      <c r="J12" s="27"/>
       <c r="K12" s="2">
         <v>12</v>
       </c>
@@ -1532,9 +1538,9 @@
       <c r="P12" s="4">
         <v>43</v>
       </c>
-      <c r="Q12" s="26"/>
+      <c r="Q12" s="20"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="20"/>
+      <c r="S12" s="27"/>
       <c r="T12" s="2">
         <v>13</v>
       </c>
@@ -1553,7 +1559,7 @@
       <c r="Y12" s="4">
         <v>39</v>
       </c>
-      <c r="Z12" s="26"/>
+      <c r="Z12" s="20"/>
     </row>
     <row r="13" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -1577,7 +1583,7 @@
       <c r="G13" s="8">
         <v>43</v>
       </c>
-      <c r="H13" s="27"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="10"/>
       <c r="J13" s="5" t="s">
         <v>3</v>
@@ -1600,7 +1606,7 @@
       <c r="P13" s="8">
         <v>43</v>
       </c>
-      <c r="Q13" s="27"/>
+      <c r="Q13" s="21"/>
       <c r="R13" s="10"/>
       <c r="S13" s="5" t="s">
         <v>3</v>
@@ -1623,7 +1629,7 @@
       <c r="Y13" s="8">
         <v>43</v>
       </c>
-      <c r="Z13" s="27"/>
+      <c r="Z13" s="21"/>
     </row>
     <row r="14" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
@@ -1736,7 +1742,7 @@
       <c r="Z15" s="24"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="6">
@@ -1757,11 +1763,11 @@
       <c r="G16" s="8">
         <v>44</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="19" t="s">
         <v>5</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="25" t="s">
         <v>1</v>
       </c>
       <c r="K16" s="6">
@@ -1782,11 +1788,11 @@
       <c r="P16" s="8">
         <v>45</v>
       </c>
-      <c r="Q16" s="25" t="s">
+      <c r="Q16" s="19" t="s">
         <v>5</v>
       </c>
       <c r="R16" s="10"/>
-      <c r="S16" s="19" t="s">
+      <c r="S16" s="25" t="s">
         <v>1</v>
       </c>
       <c r="T16" s="6">
@@ -1807,12 +1813,12 @@
       <c r="Y16" s="8">
         <v>45</v>
       </c>
-      <c r="Z16" s="25" t="s">
+      <c r="Z16" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="2">
         <v>4</v>
       </c>
@@ -1831,9 +1837,9 @@
       <c r="G17" s="4">
         <v>44</v>
       </c>
-      <c r="H17" s="26"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="21"/>
+      <c r="J17" s="26"/>
       <c r="K17" s="2">
         <v>8</v>
       </c>
@@ -1852,9 +1858,9 @@
       <c r="P17" s="4">
         <v>42</v>
       </c>
-      <c r="Q17" s="26"/>
+      <c r="Q17" s="20"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="21"/>
+      <c r="S17" s="26"/>
       <c r="T17" s="2">
         <v>2</v>
       </c>
@@ -1873,10 +1879,10 @@
       <c r="Y17" s="4">
         <v>45</v>
       </c>
-      <c r="Z17" s="26"/>
+      <c r="Z17" s="20"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="6">
@@ -1897,9 +1903,9 @@
       <c r="G18" s="8">
         <v>39</v>
       </c>
-      <c r="H18" s="26"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="25" t="s">
         <v>2</v>
       </c>
       <c r="K18" s="6">
@@ -1920,21 +1926,21 @@
       <c r="P18" s="8">
         <v>42</v>
       </c>
-      <c r="Q18" s="26"/>
+      <c r="Q18" s="20"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="19" t="s">
+      <c r="S18" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="28">
         <v>3</v>
       </c>
       <c r="U18" s="7">
         <v>10</v>
       </c>
-      <c r="V18" s="7">
+      <c r="V18" s="29">
         <v>6</v>
       </c>
-      <c r="W18" s="7">
+      <c r="W18" s="29">
         <v>37</v>
       </c>
       <c r="X18" s="7">
@@ -1943,10 +1949,10 @@
       <c r="Y18" s="8">
         <v>31</v>
       </c>
-      <c r="Z18" s="26"/>
+      <c r="Z18" s="20"/>
     </row>
     <row r="19" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="20"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="2">
         <v>8</v>
       </c>
@@ -1965,9 +1971,9 @@
       <c r="G19" s="4">
         <v>45</v>
       </c>
-      <c r="H19" s="26"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="20"/>
+      <c r="J19" s="27"/>
       <c r="K19" s="2">
         <v>18</v>
       </c>
@@ -1986,9 +1992,9 @@
       <c r="P19" s="4">
         <v>39</v>
       </c>
-      <c r="Q19" s="26"/>
+      <c r="Q19" s="20"/>
       <c r="R19" s="10"/>
-      <c r="S19" s="20"/>
+      <c r="S19" s="27"/>
       <c r="T19" s="2">
         <v>4</v>
       </c>
@@ -2007,7 +2013,7 @@
       <c r="Y19" s="4">
         <v>44</v>
       </c>
-      <c r="Z19" s="26"/>
+      <c r="Z19" s="20"/>
     </row>
     <row r="20" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
@@ -2031,7 +2037,7 @@
       <c r="G20" s="8">
         <v>42</v>
       </c>
-      <c r="H20" s="27"/>
+      <c r="H20" s="21"/>
       <c r="I20" s="10"/>
       <c r="J20" s="5" t="s">
         <v>3</v>
@@ -2054,7 +2060,7 @@
       <c r="P20" s="8">
         <v>43</v>
       </c>
-      <c r="Q20" s="27"/>
+      <c r="Q20" s="21"/>
       <c r="R20" s="10"/>
       <c r="S20" s="5" t="s">
         <v>3</v>
@@ -2077,7 +2083,7 @@
       <c r="Y20" s="8">
         <v>40</v>
       </c>
-      <c r="Z20" s="27"/>
+      <c r="Z20" s="21"/>
     </row>
     <row r="21" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
@@ -2133,13 +2139,27 @@
       <c r="S21" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="14"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="17"/>
+      <c r="T21" s="14">
+        <v>3</v>
+      </c>
+      <c r="U21" s="15">
+        <v>6</v>
+      </c>
+      <c r="V21" s="15">
+        <v>17</v>
+      </c>
+      <c r="W21" s="15">
+        <v>23</v>
+      </c>
+      <c r="X21" s="15">
+        <v>37</v>
+      </c>
+      <c r="Y21" s="16">
+        <v>39</v>
+      </c>
+      <c r="Z21" s="17">
+        <v>26</v>
+      </c>
     </row>
     <row r="22" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="22" t="s">
@@ -2176,20 +2196,32 @@
       <c r="Z22" s="24"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="25" t="s">
+      <c r="B23" s="6">
+        <v>6</v>
+      </c>
+      <c r="C23" s="7">
+        <v>13</v>
+      </c>
+      <c r="D23" s="7">
+        <v>21</v>
+      </c>
+      <c r="E23" s="7">
+        <v>32</v>
+      </c>
+      <c r="F23" s="7">
+        <v>40</v>
+      </c>
+      <c r="G23" s="8">
+        <v>45</v>
+      </c>
+      <c r="H23" s="19" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="10"/>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="25" t="s">
         <v>1</v>
       </c>
       <c r="K23" s="6"/>
@@ -2198,11 +2230,11 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="25" t="s">
+      <c r="Q23" s="19" t="s">
         <v>5</v>
       </c>
       <c r="R23" s="10"/>
-      <c r="S23" s="19" t="s">
+      <c r="S23" s="25" t="s">
         <v>1</v>
       </c>
       <c r="T23" s="6"/>
@@ -2211,51 +2243,75 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="8"/>
-      <c r="Z23" s="25" t="s">
+      <c r="Z23" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="21"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="26"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3">
+        <v>16</v>
+      </c>
+      <c r="E24" s="3">
+        <v>28</v>
+      </c>
+      <c r="F24" s="3">
+        <v>33</v>
+      </c>
+      <c r="G24" s="4">
+        <v>39</v>
+      </c>
+      <c r="H24" s="20"/>
       <c r="I24" s="10"/>
-      <c r="J24" s="21"/>
+      <c r="J24" s="26"/>
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="26"/>
+      <c r="Q24" s="20"/>
       <c r="R24" s="10"/>
-      <c r="S24" s="21"/>
+      <c r="S24" s="26"/>
       <c r="T24" s="2"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="26"/>
+      <c r="Z24" s="20"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="26"/>
+      <c r="B25" s="6">
+        <v>5</v>
+      </c>
+      <c r="C25" s="7">
+        <v>9</v>
+      </c>
+      <c r="D25" s="7">
+        <v>15</v>
+      </c>
+      <c r="E25" s="7">
+        <v>22</v>
+      </c>
+      <c r="F25" s="7">
+        <v>25</v>
+      </c>
+      <c r="G25" s="8">
+        <v>45</v>
+      </c>
+      <c r="H25" s="20"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="25" t="s">
         <v>2</v>
       </c>
       <c r="K25" s="6"/>
@@ -2264,9 +2320,9 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="26"/>
+      <c r="Q25" s="20"/>
       <c r="R25" s="10"/>
-      <c r="S25" s="19" t="s">
+      <c r="S25" s="25" t="s">
         <v>2</v>
       </c>
       <c r="T25" s="6"/>
@@ -2275,47 +2331,71 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="8"/>
-      <c r="Z25" s="26"/>
+      <c r="Z25" s="20"/>
     </row>
     <row r="26" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="20"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="26"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="2">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3">
+        <v>24</v>
+      </c>
+      <c r="E26" s="3">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3">
+        <v>44</v>
+      </c>
+      <c r="G26" s="4">
+        <v>40</v>
+      </c>
+      <c r="H26" s="20"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="20"/>
+      <c r="J26" s="27"/>
       <c r="K26" s="2"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="26"/>
+      <c r="Q26" s="20"/>
       <c r="R26" s="10"/>
-      <c r="S26" s="20"/>
+      <c r="S26" s="27"/>
       <c r="T26" s="2"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="26"/>
+      <c r="Z26" s="20"/>
     </row>
     <row r="27" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="27"/>
+      <c r="B27" s="6">
+        <v>7</v>
+      </c>
+      <c r="C27" s="7">
+        <v>11</v>
+      </c>
+      <c r="D27" s="7">
+        <v>18</v>
+      </c>
+      <c r="E27" s="7">
+        <v>27</v>
+      </c>
+      <c r="F27" s="7">
+        <v>42</v>
+      </c>
+      <c r="G27" s="8">
+        <v>45</v>
+      </c>
+      <c r="H27" s="21"/>
       <c r="I27" s="10"/>
       <c r="J27" s="5" t="s">
         <v>3</v>
@@ -2326,7 +2406,7 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="8"/>
-      <c r="Q27" s="27"/>
+      <c r="Q27" s="21"/>
       <c r="R27" s="10"/>
       <c r="S27" s="5" t="s">
         <v>3</v>
@@ -2337,7 +2417,7 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="8"/>
-      <c r="Z27" s="27"/>
+      <c r="Z27" s="21"/>
     </row>
     <row r="28" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
@@ -2375,6 +2455,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S8:Z8"/>
+    <mergeCell ref="S9:S10"/>
     <mergeCell ref="Q2:Q6"/>
     <mergeCell ref="Q9:Q13"/>
     <mergeCell ref="Q16:Q20"/>
@@ -2391,38 +2503,6 @@
     <mergeCell ref="S25:S26"/>
     <mergeCell ref="S11:S12"/>
     <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="S8:Z8"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="H2:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
